--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,30 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>jin：</t>
+    <t>rbg1.jpg</t>
   </si>
   <si>
-    <t>全名制作人你们好</t>
-  </si>
-  <si>
-    <t>jin</t>
-  </si>
-  <si>
-    <t>liao：</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>liao</t>
-  </si>
-  <si>
-    <t>我是偶像练习生</t>
-  </si>
-  <si>
-    <t>展示你的才艺</t>
+    <t>rbg2.jpg</t>
   </si>
 </sst>
 </file>
@@ -986,109 +968,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/story/1.xlsx
+++ b/Assets/Resources/story/1.xlsx
@@ -29,12 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>rbg1.jpg</t>
+    <t>1.jpg</t>
   </si>
   <si>
-    <t>rbg2.jpg</t>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
   </si>
 </sst>
 </file>
@@ -968,13 +974,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -995,6 +1001,16 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
